--- a/grupos/6AEV - Estadisticos 20202.xlsx
+++ b/grupos/6AEV - Estadisticos 20202.xlsx
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <v>7</v>
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>7</v>
@@ -2641,10 +2641,10 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -2662,7 +2662,7 @@
         <v>5</v>
       </c>
       <c r="U26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V26">
         <v>6</v>
@@ -2875,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>7</v>
@@ -2952,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P30">
         <v>7</v>

--- a/grupos/6AEV - Estadisticos 20202.xlsx
+++ b/grupos/6AEV - Estadisticos 20202.xlsx
@@ -1886,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T16">
         <v>5</v>
@@ -2194,7 +2194,7 @@
         <v>6</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -2271,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -2289,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2348,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T22">
         <v>6</v>
@@ -2656,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T26">
         <v>5</v>
@@ -2674,7 +2674,7 @@
         <v>6</v>
       </c>
       <c r="Y26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2964,7 +2964,7 @@
         <v>6</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>5</v>

--- a/grupos/6AEV - Estadisticos 20202.xlsx
+++ b/grupos/6AEV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
   <si>
     <t>Materia</t>
   </si>
@@ -176,13 +176,13 @@
     <t>Velasco Sánchez David</t>
   </si>
   <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
     <t>Bautista Sarao Eutiquio</t>
   </si>
   <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
   </si>
   <si>
     <t>NC</t>
@@ -3204,19 +3204,19 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>55.17</v>
+        <v>79.31</v>
       </c>
       <c r="G2">
-        <v>44.83</v>
+        <v>20.69</v>
       </c>
       <c r="H2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>62.07</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="G3">
-        <v>37.93</v>
+        <v>13.79</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -3268,19 +3268,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>79.31</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>20.69</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3294,25 +3294,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>82.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>17.24</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -3332,19 +3332,19 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>89.66</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>10.34</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3364,19 +3364,19 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>96.55</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3956,7 +3956,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3986,21 +3986,21 @@
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4014,16 +4014,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920016</v>
+        <v>17330051920278</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -4032,21 +4032,21 @@
         <v>51</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920028</v>
+        <v>17330051920418</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -4060,22 +4060,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920028</v>
+        <v>17330051920418</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4083,16 +4083,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920034</v>
+        <v>18330051920037</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -4106,16 +4106,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920034</v>
+        <v>18330051920037</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -4124,50 +4124,50 @@
         <v>51</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920014</v>
+        <v>18330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920023</v>
+        <v>18330051920032</v>
       </c>
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -4175,16 +4175,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920026</v>
+        <v>18330051920016</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -4193,75 +4193,29 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>17330051920160</v>
+        <v>17330051920483</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920017</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920030</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
         <v>5</v>
       </c>
     </row>
